--- a/folder/recordaccount/默认分类数据.xlsx
+++ b/folder/recordaccount/默认分类数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12260"/>
+    <workbookView windowWidth="28800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="支出" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>分类名称</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>其它</t>
+  </si>
+  <si>
+    <t>设置</t>
   </si>
   <si>
     <t>薪资</t>
@@ -124,10 +127,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -138,6 +141,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -145,6 +156,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -153,14 +172,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,8 +194,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,38 +213,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,61 +224,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,12 +301,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -316,37 +379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,19 +397,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,25 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,73 +475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +508,56 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -525,41 +578,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -574,168 +592,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,10 +1068,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1333,6 +1336,17 @@
         <v>19</v>
       </c>
     </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F3:M6"/>
@@ -1345,10 +1359,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1369,10 +1383,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1380,10 +1394,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1391,10 +1405,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1402,10 +1416,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1413,10 +1427,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1424,10 +1438,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1435,10 +1449,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1446,10 +1460,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1457,10 +1471,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1468,10 +1482,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1479,13 +1493,24 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
